--- a/data/Boiling ANN data.xlsx
+++ b/data/Boiling ANN data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da2f44232b63bc5a/JWorkspace/cihan/ml_calismasi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{2CCFB011-053D-4A1A-A9AF-04A53DD27C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7794BBA4-3FA0-406F-98DB-5C45524FA925}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2CCFB011-053D-4A1A-A9AF-04A53DD27C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{542F2E44-D3C4-44D2-BAEC-6040D06FCF4C}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Düz boru H " sheetId="3" r:id="rId1"/>
@@ -659,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB19AD4-646F-4BF4-80B6-065C0BC3031F}">
   <dimension ref="B1:AK92"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
@@ -10101,7 +10101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21221200-2087-411C-B88A-04814EE803FA}">
   <dimension ref="A1:AK88"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -10114,9 +10114,11 @@
     <col min="5" max="5" width="9.1796875" style="10"/>
     <col min="6" max="7" width="9.1796875" style="11"/>
     <col min="8" max="8" width="9.1796875" style="12"/>
-    <col min="9" max="10" width="9.1796875" style="10"/>
-    <col min="11" max="11" width="9.1796875" style="11"/>
-    <col min="12" max="16" width="9.1796875" style="10"/>
+    <col min="9" max="9" width="7.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.1796875" style="10"/>
     <col min="17" max="17" width="9.1796875" style="12"/>
     <col min="18" max="24" width="9.1796875" style="11"/>
     <col min="25" max="25" width="9.1796875" style="13"/>
@@ -28562,7 +28564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E03E4AB-95A8-451C-B8CB-18E4E22DFE72}">
   <dimension ref="B1:AK88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
